--- a/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
@@ -684,12 +684,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1022,68 +1025,68 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="184" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="故障知识库导入模板" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 8.携带工具：非必填；</t>
   </si>
   <si>
-    <t>知识库类别</t>
+    <t>故障现象分类</t>
   </si>
   <si>
     <t>设备类型</t>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="故障知识库导入模板" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
-1.知识库类别：必填，且系统中已存在；
+1.故障现象分类：必填，且系统中已存在；
 2.设备类型：必填，且系统中已存在；
 3.设备组件：非必填，且系统中已存在；
 4.故障现象：必填；

--- a/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/knowledgeBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="故障知识库导入模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>故障知识库导入模板</t>
   </si>
@@ -32,6 +32,12 @@
 6.解决方案：必填；
 7.排查方法：非必填；
 8.携带工具：非必填；</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>子系统</t>
   </si>
   <si>
     <t>故障现象分类</t>
@@ -1022,25 +1028,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1059,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="184" customHeight="1" spans="1:8">
+    <row r="2" ht="184" customHeight="1" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1063,15 +1073,17 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1086,14 +1098,20 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
